--- a/LH_TESTCASES/LH_TESTCASES.xlsx
+++ b/LH_TESTCASES/LH_TESTCASES.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\halae\OneDrive\Documents\GitHub\Group-3-Learning-hub\LH_TESTCASES\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LOGIN-TC-SHEET" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="77">
   <si>
     <t>TC_ID</t>
   </si>
@@ -66,21 +66,6 @@
     <t>TC006</t>
   </si>
   <si>
-    <t>TC007</t>
-  </si>
-  <si>
-    <t>TC008</t>
-  </si>
-  <si>
-    <t>TC009</t>
-  </si>
-  <si>
-    <t>TC010</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>LH-TC-Login-001</t>
   </si>
   <si>
@@ -102,21 +87,9 @@
     <t>LH-TC-Login-007</t>
   </si>
   <si>
-    <t>LH-TC-Login-008</t>
-  </si>
-  <si>
-    <t>LH-TC-Login-009</t>
-  </si>
-  <si>
-    <t>LH-TC-Login-010</t>
-  </si>
-  <si>
     <t>Valid Login</t>
   </si>
   <si>
-    <t>Invalid Username</t>
-  </si>
-  <si>
     <t>Invalid Password</t>
   </si>
   <si>
@@ -129,27 +102,12 @@
     <t>SQL Injection Attempt</t>
   </si>
   <si>
-    <t>Remember Me Option</t>
-  </si>
-  <si>
-    <t>Forgot Password</t>
-  </si>
-  <si>
-    <t>Account Lock after 3 Failures</t>
-  </si>
-  <si>
-    <t>Session Timeout</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
     <t>Ensure login works with valid credentials.</t>
   </si>
   <si>
-    <t>Ensure error message appears when invalid username is entered.</t>
-  </si>
-  <si>
     <t>Ensure error message appears when invalid password is entered.</t>
   </si>
   <si>
@@ -162,27 +120,7 @@
     <t>Ensure login is protected against SQL injection.</t>
   </si>
   <si>
-    <t>Ensure 'Remember Me' option works properly.</t>
-  </si>
-  <si>
-    <t>Ensure forgot password functionality works correctly.</t>
-  </si>
-  <si>
-    <t>Ensure account gets locked after 3 failed login attempts.</t>
-  </si>
-  <si>
-    <t>Ensure session ends after inactivity period.</t>
-  </si>
-  <si>
     <t>Test Data</t>
-  </si>
-  <si>
-    <t>Username: user1
-Password: Pass@123</t>
-  </si>
-  <si>
-    <t>Username: wrongUser
-Password: Pass@123</t>
   </si>
   <si>
     <t>Username: user1
@@ -193,18 +131,8 @@
 Password: &lt;empty&gt;</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Username: ' OR 1=1 --
 Password: any</t>
-  </si>
-  <si>
-    <t>Email: user1@example.com</t>
-  </si>
-  <si>
-    <t>Username: user1
-Password: wrong x3</t>
   </si>
   <si>
     <t>1. Open login page
@@ -213,11 +141,6 @@
   </si>
   <si>
     <t>1. Open login page
-2. Enter invalid username
-3. Click login</t>
-  </si>
-  <si>
-    <t>1. Open login page
 2. Enter invalid password
 3. Click login</t>
   </si>
@@ -237,34 +160,12 @@
 3. Click login</t>
   </si>
   <si>
-    <t>1. Open login page
-2. Check 'Remember Me'
-3. Login
-4. Reopen app</t>
-  </si>
-  <si>
-    <t>1. Click 'Forgot Password'
-2. Enter email
-3. Submit</t>
-  </si>
-  <si>
-    <t>1. Enter wrong password 3 times
-2. Try to login again</t>
-  </si>
-  <si>
-    <t>1. Login
-2. Stay inactive for timeout duration</t>
-  </si>
-  <si>
     <t>Expected Results</t>
   </si>
   <si>
     <t>User is redirected to homepage</t>
   </si>
   <si>
-    <t>Error message 'Invalid username or password' appears</t>
-  </si>
-  <si>
     <t>Error message 'Please fill in all fields' appears</t>
   </si>
   <si>
@@ -274,18 +175,6 @@
     <t>Login attempt is rejected with error message</t>
   </si>
   <si>
-    <t>User info is saved and auto-filled on next visit</t>
-  </si>
-  <si>
-    <t>Password reset link is sent to the email</t>
-  </si>
-  <si>
-    <t>Account is temporarily locked and message is shown</t>
-  </si>
-  <si>
-    <t>User is logged out after timeout</t>
-  </si>
-  <si>
     <t>Hala Eldaly</t>
   </si>
   <si>
@@ -308,9 +197,6 @@
   </si>
   <si>
     <t>1. User has successfully navigated to the login page URL</t>
-  </si>
-  <si>
-    <t>1. User has successfully navigated to the login page URL 2.User is logged in</t>
   </si>
   <si>
     <t>1. User has successfully navigated to the login page URL
@@ -337,6 +223,60 @@
   </si>
   <si>
     <t>intial version</t>
+  </si>
+  <si>
+    <t>Username: user123@gmail.com 
+Password: Pass@123</t>
+  </si>
+  <si>
+    <t>SRS_ID</t>
+  </si>
+  <si>
+    <t>Invalid Email</t>
+  </si>
+  <si>
+    <t>Username: wrongEmail
+Password: Pass@123</t>
+  </si>
+  <si>
+    <t>Ensure error message appears when invalid email is entered.</t>
+  </si>
+  <si>
+    <t>1. Open login page
+2. Enter invalid email
+3. Click login</t>
+  </si>
+  <si>
+    <t>Error message 'Invalid email or password' appears</t>
+  </si>
+  <si>
+    <t>Sign Up Button Functionality</t>
+  </si>
+  <si>
+    <t>Ensure the "New user? Sign up" button navigates to the registration page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. User has successfully navigated to the login page URL and is not registered
+</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>1. Open login page
+2. Click on "New user? Sign up" button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User is redirected to the registration (sign-up) page </t>
+  </si>
+  <si>
+    <t>Password: Pass@123</t>
+  </si>
+  <si>
+    <t>v1.1</t>
+  </si>
+  <si>
+    <t>modify after last reviewers comments on version 1.1 of TC</t>
   </si>
 </sst>
 </file>
@@ -455,7 +395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -506,12 +446,87 @@
     </xf>
     <xf numFmtId="15" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="20">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -547,78 +562,6 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -816,11 +759,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K12" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A1:K12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K8" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:K8"/>
   <tableColumns count="11">
-    <tableColumn id="18" name="ID" dataDxfId="17"/>
-    <tableColumn id="1" name="TC_ID" dataDxfId="16"/>
+    <tableColumn id="18" name="TC_ID" dataDxfId="17"/>
+    <tableColumn id="1" name="SRS_ID" dataDxfId="16"/>
     <tableColumn id="2" name="Title" dataDxfId="15"/>
     <tableColumn id="3" name="Description" dataDxfId="14"/>
     <tableColumn id="4" name="Preconditions" dataDxfId="13"/>
@@ -836,13 +779,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:D4" totalsRowShown="0" headerRowDxfId="0" dataDxfId="2" headerRowBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:D4" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5">
   <autoFilter ref="A1:D4"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Version number" dataDxfId="6"/>
-    <tableColumn id="2" name="Author" dataDxfId="5"/>
-    <tableColumn id="3" name="Updated section" dataDxfId="4"/>
-    <tableColumn id="4" name="Date" dataDxfId="3"/>
+    <tableColumn id="1" name="Version number" dataDxfId="3"/>
+    <tableColumn id="2" name="Author" dataDxfId="2"/>
+    <tableColumn id="3" name="Updated section" dataDxfId="1"/>
+    <tableColumn id="4" name="Date" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1111,10 +1054,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="F1" zoomScale="44" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25"/>
@@ -1136,28 +1079,28 @@
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>4</v>
@@ -1171,437 +1114,319 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:13" ht="57">
+    <row r="2" spans="1:13" ht="85.5">
       <c r="A2" s="9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>58</v>
+        <v>53</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>35</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13" ht="57">
+    <row r="3" spans="1:13" ht="85.5">
       <c r="A3" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>59</v>
+        <v>52</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>66</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13" ht="57">
+    <row r="4" spans="1:13" ht="85.5">
       <c r="A4" s="9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>60</v>
+        <v>54</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:13" ht="28.5">
+    <row r="5" spans="1:13" ht="85.5">
       <c r="A5" s="9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>71</v>
-      </c>
       <c r="I5" s="10" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:13" ht="28.5">
+    <row r="6" spans="1:13" ht="85.5">
       <c r="A6" s="9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>72</v>
-      </c>
       <c r="I6" s="10" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" ht="28.5">
+    <row r="7" spans="1:13" ht="85.5">
       <c r="A7" s="9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>73</v>
-      </c>
       <c r="I7" s="10" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13" ht="57">
+    <row r="8" spans="1:13" ht="85.5">
       <c r="A8" s="9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="D8" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="F8" s="11" t="s">
+      <c r="J8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>80</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
     <row r="9" spans="1:13" ht="28.5">
-      <c r="A9" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>83</v>
-      </c>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" ht="57">
-      <c r="A10" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>82</v>
-      </c>
+    <row r="10" spans="1:13" ht="28.5">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
     <row r="11" spans="1:13" ht="28.5">
-      <c r="A11" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>80</v>
-      </c>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" ht="28.5">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" ht="28.5">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" ht="28.5">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" ht="28.5">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-    </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J8 J7 J2:J6">
+      <formula1>"Low, Medium, High, Critical"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K8">
+      <formula1>"Minor, Major, Critical, Blocker"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -1614,8 +1439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView zoomScale="118" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1628,37 +1453,45 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.25">
       <c r="A1" s="14" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75">
       <c r="A2" s="16" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="D2" s="18">
         <v>45760</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18.75">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
+    <row r="3" spans="1:4" ht="56.25">
+      <c r="A3" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="18">
+        <v>45766</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="18.75">
       <c r="A4" s="13"/>

--- a/LH_TESTCASES/LH_TESTCASES.xlsx
+++ b/LH_TESTCASES/LH_TESTCASES.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="76">
   <si>
     <t>TC_ID</t>
   </si>
@@ -46,24 +46,6 @@
   </si>
   <si>
     <t>Severity</t>
-  </si>
-  <si>
-    <t>TC001</t>
-  </si>
-  <si>
-    <t>TC002</t>
-  </si>
-  <si>
-    <t>TC003</t>
-  </si>
-  <si>
-    <t>TC004</t>
-  </si>
-  <si>
-    <t>TC005</t>
-  </si>
-  <si>
-    <t>TC006</t>
   </si>
   <si>
     <t>LH-TC-Login-001</t>
@@ -277,13 +259,28 @@
   </si>
   <si>
     <t>modify after last reviewers comments on version 1.1 of TC</t>
+  </si>
+  <si>
+    <t>SRS-LOGIN-001</t>
+  </si>
+  <si>
+    <t>SRS-LOGIN-003</t>
+  </si>
+  <si>
+    <t>SRS-LOGIN-002</t>
+  </si>
+  <si>
+    <t>Added the SRS_ID related to the test case</t>
+  </si>
+  <si>
+    <t>v1.2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,13 +313,6 @@
     </font>
     <font>
       <sz val="22"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -395,7 +385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -431,20 +421,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1056,8 +1045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="44" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView zoomScale="44" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25"/>
@@ -1082,25 +1071,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>4</v>
@@ -1116,259 +1105,259 @@
     </row>
     <row r="2" spans="1:13" ht="85.5">
       <c r="A2" s="9" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>26</v>
-      </c>
       <c r="E2" s="12" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="10" t="s">
-        <v>41</v>
-      </c>
       <c r="I2" s="10" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:13" ht="85.5">
       <c r="A3" s="9" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>66</v>
+        <v>58</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>60</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
     <row r="4" spans="1:13" ht="85.5">
       <c r="A4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="11" t="s">
+      <c r="D4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>27</v>
-      </c>
       <c r="E4" s="12" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>36</v>
+        <v>26</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>30</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="85.5">
       <c r="A5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="11" t="s">
+      <c r="D5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>28</v>
-      </c>
       <c r="E5" s="11" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>37</v>
+        <v>27</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:13" ht="85.5">
       <c r="A6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="11" t="s">
+      <c r="D6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>29</v>
-      </c>
       <c r="E6" s="11" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>38</v>
+        <v>68</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>32</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="I6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="10" t="s">
         <v>45</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>51</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:13" ht="85.5">
       <c r="A7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="11" t="s">
+      <c r="D7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>30</v>
-      </c>
       <c r="E7" s="11" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>45</v>
-      </c>
       <c r="J7" s="10" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
     <row r="8" spans="1:13" ht="85.5">
       <c r="A8" s="9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>72</v>
+        <v>65</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>66</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -1440,7 +1429,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1452,52 +1441,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25">
-      <c r="A1" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>58</v>
+      <c r="A1" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75">
-      <c r="A2" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="18">
+      <c r="A2" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="17">
         <v>45760</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="56.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="17">
+        <v>45766</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="37.5">
+      <c r="A4" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="18">
+      <c r="B4" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="17">
         <v>45766</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="18.75">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
